--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Tolliver.Spring.022321.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Tolliver.Spring.022321.xlsx_with_dialog_acts.xlsx
@@ -889,12 +889,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1577,12 +1577,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2037,12 +2037,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2497,12 +2497,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2881,12 +2881,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3261,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3873,12 +3873,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4177,12 +4177,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4979,12 +4979,12 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5017,12 +5017,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5397,12 +5397,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5739,12 +5739,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6119,12 +6119,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6461,12 +6461,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7345,12 +7345,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8409,12 +8409,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8447,12 +8447,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8599,12 +8599,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8941,12 +8941,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8979,12 +8979,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9321,12 +9321,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9359,12 +9359,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10119,12 +10119,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10271,12 +10271,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10423,12 +10423,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10689,12 +10689,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10727,12 +10727,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11411,12 +11411,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11449,12 +11449,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11677,12 +11677,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12703,12 +12703,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12779,12 +12779,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12817,12 +12817,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12893,12 +12893,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13045,12 +13045,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13159,12 +13159,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13691,12 +13691,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13805,12 +13805,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14641,12 +14641,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14869,12 +14869,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14945,12 +14945,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -15249,12 +15249,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15287,12 +15287,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15439,12 +15439,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15705,12 +15705,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15819,12 +15819,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16123,12 +16123,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16237,12 +16237,12 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16465,12 +16465,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17035,12 +17035,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17111,12 +17111,12 @@
       <c r="H438" t="inlineStr"/>
       <c r="I438" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17613,12 +17613,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17689,12 +17689,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17955,12 +17955,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18525,12 +18525,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18563,12 +18563,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18715,12 +18715,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19741,12 +19741,12 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20239,12 +20239,12 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20429,12 +20429,12 @@
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20619,12 +20619,12 @@
       <c r="H530" t="inlineStr"/>
       <c r="I530" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21151,12 +21151,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21341,12 +21341,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21835,12 +21835,12 @@
       <c r="H562" t="inlineStr"/>
       <c r="I562" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22333,12 +22333,12 @@
       <c r="H575" t="inlineStr"/>
       <c r="I575" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22637,12 +22637,12 @@
       <c r="H583" t="inlineStr"/>
       <c r="I583" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
